--- a/src/assets/td_template.xlsx
+++ b/src/assets/td_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36EF6E6B-3105-4C4C-A3F3-A812D85EE677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB7978-BAD7-42D5-AF08-BA5E94679BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{1FC7E962-14DD-40F6-952B-987423026C64}"/>
+    <workbookView xWindow="9285" yWindow="5055" windowWidth="28800" windowHeight="15345" xr2:uid="{1FC7E962-14DD-40F6-952B-987423026C64}"/>
   </bookViews>
   <sheets>
     <sheet name="TD_excel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>handle_name</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>is_blocked</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>poc</t>
+  </si>
+  <si>
+    <t>projectName</t>
   </si>
 </sst>
 </file>
@@ -889,15 +904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26B028B-4567-412A-B4A7-A1A37712F024}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,6 +922,21 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/td_template.xlsx
+++ b/src/assets/td_template.xlsx
@@ -1,188 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenta\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB7978-BAD7-42D5-AF08-BA5E94679BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="5055" windowWidth="28800" windowHeight="15345" xr2:uid="{1FC7E962-14DD-40F6-952B-987423026C64}"/>
+    <workbookView windowWidth="28500" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="TD_excel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>handle_name</t>
+    <t>Handle Name</t>
   </si>
   <si>
-    <t>followers</t>
+    <t>Followers</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>is_blocked</t>
+    <t>Email</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>category</t>
+    <t>Category</t>
   </si>
   <si>
-    <t>poc</t>
+    <t>POC</t>
   </si>
   <si>
-    <t>projectName</t>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Display"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,175 +211,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,15 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,8 +417,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,11 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,17 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,106 +502,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -630,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -663,26 +717,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -715,23 +752,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -893,52 +913,54 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26B028B-4567-412A-B4A7-A1A37712F024}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="11.1470588235294" customWidth="1"/>
+    <col min="4" max="4" width="8.94852941176471" customWidth="1"/>
+    <col min="8" max="8" width="11.1544117647059" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1"/>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>